--- a/тест кейсы.xlsx
+++ b/тест кейсы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artur/Documents/GitHub/my-firsrt-rep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/artur/Documents/my-first-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721F1DFD-4B04-C943-9E92-0507131670B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58770B91-04FD-BF48-B780-27D47E930C6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16600" xr2:uid="{471BC974-F50E-434F-979E-91D88CEDFB39}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0700D8F-0B2F-7243-B458-C871649D7B76}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -972,8 +972,8 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="12" t="s">
-        <v>47</v>
+      <c r="I6" s="13" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -993,8 +993,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="13" t="s">
-        <v>46</v>
+      <c r="I7" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -1076,6 +1076,9 @@
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
+      <c r="I11" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
